--- a/medicine/Sexualité et sexologie/Nymphomaniac/Nymphomaniac.xlsx
+++ b/medicine/Sexualité et sexologie/Nymphomaniac/Nymphomaniac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphomaniac (stylisé Nymph()maniac) est un film dano-franco-germano-belge en deux parties (volumes), écrit et réalisé par Lars von Trier, sorti en 2013.
 </t>
@@ -511,11 +523,48 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le parcours sexuel d'une femme, raconté en huit chapitres successifs par le personnage principal, Joe, qui s'est auto-diagnostiquée comme étant une nymphomane[2].
-Liste des chapitres
-Le Parfait Pêcheur à la ligne
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parcours sexuel d'une femme, raconté en huit chapitres successifs par le personnage principal, Joe, qui s'est auto-diagnostiquée comme étant une nymphomane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nymphomaniac</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nymphomaniac</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des chapitres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Parfait Pêcheur à la ligne
 Jerôme
 Mrs. H
 Delirium
@@ -526,31 +575,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Nymphomaniac</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nymphomaniac</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : Nymphomaniac
 Titre du Volume I : Nymphomaniac : Volume 1
@@ -570,48 +621,88 @@
 Version du réalisateur : (326 min)
 Dates de sortie :
 Danemark : 25 décembre 2013
-France : 1er janvier 2014 (Volume I)[3], 24 janvier 2014 (festival Premiers Plans d'Angers)[4], 29 janvier 2014 (Volume II)
+France : 1er janvier 2014 (Volume I), 24 janvier 2014 (festival Premiers Plans d'Angers), 29 janvier 2014 (Volume II)
 Allemagne : 20 février 2014
 Public :
-Volume I : Interdit aux moins de 12 ans lors de sa sortie en salles en France[5] puis interdit aux moins de 16 ans.
-Volume II : interdit aux moins de 16 ans, puis interdit aux moins de 18 ans[6].</t>
+Volume I : Interdit aux moins de 12 ans lors de sa sortie en salles en France puis interdit aux moins de 16 ans.
+Volume II : interdit aux moins de 16 ans, puis interdit aux moins de 18 ans.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nymphomaniac</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nymphomaniac</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Acteurs présents dans le Volume I et II
-Charlotte Gainsbourg (VF : Suliane Brahim) : Joe
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs présents dans le Volume I et II</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Charlotte Gainsbourg (VF : Suliane Brahim) : Joe
 Stacy Martin (VF : Zoé Schellenberg) : Joe (jeune)
 Stellan Skarsgård (VF : François Marthouret) : Seligman
 Shia LaBeouf (VF : Vincent Ozanon) : Jerôme Morris
 Christian Slater (VF : Pierre Baux) : le père de Joe
-Sophie Kennedy Clark : B
-Volume I
+Sophie Kennedy Clark : B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nymphomaniac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nymphomaniac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Volume I</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Uma Thurman (VF : Odile Cohen) : Madame H
 Connie Nielsen : Katherine, la mère de Joe
 Jens Albinus (VF : Jean-Michel Fête) : S
@@ -625,7 +716,43 @@
 James Northcote et Charlie G. Hawkins (en) : les jeunes dans le train
 Saskia Reeves : l'infirmière
 Clayton Nemrow : l'homme à côté de sa femme dans le train
-Volume II
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nymphomaniac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nymphomaniac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Volume II</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jamie Bell : K
 Willem Dafoe (VF : Thierry Hancisse) : L
 Mia Goth (VF : Sarah Brannens) : P
@@ -641,7 +768,7 @@
 Kate Ashfield : la thérapeute
 Caroline Goodall : la psychologue
 Udo Kier : le serveur
-Source et légende : version française (VF) sur le site d’AlterEgo (la société de doublage[7])</t>
+Source et légende : version française (VF) sur le site d’AlterEgo (la société de doublage)</t>
         </is>
       </c>
     </row>
